--- a/code/results/final/analyze2_16_8_erroredit.xlsx
+++ b/code/results/final/analyze2_16_8_erroredit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="analyze2_16_8" sheetId="1" r:id="rId1"/>
@@ -1121,11 +1121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1876245840"/>
-        <c:axId val="1879073296"/>
+        <c:axId val="1761239728"/>
+        <c:axId val="1883864160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1876245840"/>
+        <c:axId val="1761239728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,12 +1181,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879073296"/>
+        <c:crossAx val="1883864160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1879073296"/>
+        <c:axId val="1883864160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1242,868 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876245840"/>
+        <c:crossAx val="1761239728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analyze2_16_8!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent_high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analyze2_16_8!$C$2:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analyze2_16_8!$D$2:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0.0553979447706576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0474839526605637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.315871511176793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0018924763741529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0509248187953871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000344086613482345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00223656298763524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00653764565616457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0129032480055879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00412903936178814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00258064960111759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00670968896290574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00258064960111759</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0018924763741529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00550538581571753</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0163441141404114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000688173226964691</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0521291219425753</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0116989448583997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00120430314718821</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.016000027526929</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0122150747786232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0194408936617525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000344086613482345</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00739786218987043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00103225984044703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00894625195054099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000344086613482345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00120430314718821</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00258064960111759</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00309677952134111</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00120430314718821</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0256344527044347</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00154838976067055</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00206451968089407</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00258064960111759</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00206451968089407</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000860216533705864</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00103225984044703</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00774194880335278</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00154838976067055</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0037849527483058</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00103225984044703</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00395699605504697</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0142795944595173</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0302796219864464</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0294194054527405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00258064960111759</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000860216533705864</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.00275269290785876</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00395699605504697</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.00481721258875284</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.000516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.00619355904268222</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00395699605504697</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00206451968089407</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.000172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.000516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.000516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0130752913123291</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0380215707897992</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.00516129920223518</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.00120430314718821</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0142795944595173</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.000172043306741172</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0273548857718464</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00137634645392938</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.000344086613482345</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.00533334250897635</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.00326882282808228</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0037849527483058</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.00137634645392938</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0018924763741529</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.00498925589549401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00258064960111759</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.00395699605504697</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.00395699605504697</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.183914294906313</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.014967767686482</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.112172235995244</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0146236810729996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.00911829525728216</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.00326882282808228</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.00103225984044703</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0839571336896923</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.038881787323505</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.231742334180359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1886855504"/>
+        <c:axId val="1887175728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1886855504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887175728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887175728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886855504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1292,6 +2153,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1847,20 +2748,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1874,6 +3291,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>727365</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66386</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2147,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
